--- a/posts/00-Bienvenida/Lista-de-alumnos-2025.xlsx
+++ b/posts/00-Bienvenida/Lista-de-alumnos-2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\equih\0 Versiones\M3-2025-Causalidad\posts\00-Bienvenida\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9D45DB-64EC-4A30-A943-986FDE2B61DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14002DC-9A63-4399-AB78-9FF5340BE713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{9F536AE8-612B-46E0-8B95-097AAFA741E8}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{9F536AE8-612B-46E0-8B95-097AAFA741E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,9 +65,6 @@
     <t>DD24011</t>
   </si>
   <si>
-    <t>MÁRQUEZ GUERRA SONIA</t>
-  </si>
-  <si>
     <t>sonia.marquez@posgrado.ecologia.edu.mx</t>
   </si>
   <si>
@@ -173,9 +170,6 @@
     <t>MM24014</t>
   </si>
   <si>
-    <t>Olmedo Blanco María del Carmen</t>
-  </si>
-  <si>
     <t>maria.olmedo@posgrado.ecologia.edu.mx</t>
   </si>
   <si>
@@ -237,13 +231,19 @@
   </si>
   <si>
     <t>Estudiante</t>
+  </si>
+  <si>
+    <t>Márquez Guerra Sonia</t>
+  </si>
+  <si>
+    <t>Olmedo Blanco María Del Carmen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +277,12 @@
       <color rgb="FF000000"/>
       <name val="Aptos"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1064,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7167C6-672E-401A-9623-E7CE98BDD6C2}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="42.26171875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1085,13 +1091,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1119,10 +1125,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>9</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>6</v>
@@ -1133,13 +1139,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>12</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>6</v>
@@ -1150,13 +1156,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>6</v>
@@ -1167,13 +1173,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>6</v>
@@ -1184,13 +1190,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>21</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>6</v>
@@ -1201,13 +1207,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>6</v>
@@ -1218,13 +1224,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>6</v>
@@ -1235,13 +1241,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>6</v>
@@ -1252,13 +1258,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="D11" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>6</v>
@@ -1269,13 +1275,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>6</v>
@@ -1286,13 +1292,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>6</v>
@@ -1303,13 +1309,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>6</v>
@@ -1318,16 +1324,16 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7"/>
       <c r="B15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="E15" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1335,13 +1341,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>6</v>
@@ -1351,13 +1357,13 @@
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1366,13 +1372,13 @@
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>53</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1381,13 +1387,13 @@
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1396,13 +1402,13 @@
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1411,13 +1417,13 @@
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1426,16 +1432,17 @@
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="A2:E22">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>NOT(ISERROR(FIND("baja", $E2)))</formula>
@@ -1473,27 +1480,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Contenido xmlns="42b0f0ba-d73e-4b7f-88a4-a16d362f181e" xsi:nil="true"/>
-    <TaxCatchAll xmlns="de27ce7e-ac99-4368-aacf-92c6609ff954" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="42b0f0ba-d73e-4b7f-88a4-a16d362f181e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101008B73687BEA8D66469D7F47F639E8E265" ma:contentTypeVersion="23" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="64c30e145dbb12a9fa0fe26fb144b273">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="de27ce7e-ac99-4368-aacf-92c6609ff954" xmlns:ns3="42b0f0ba-d73e-4b7f-88a4-a16d362f181e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="560ab6deb41c01c135d01efad5a462a0" ns2:_="" ns3:_="">
     <xsd:import namespace="de27ce7e-ac99-4368-aacf-92c6609ff954"/>
@@ -1768,26 +1754,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20F7D4BD-0E21-4A3F-930A-48565922CE88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="42b0f0ba-d73e-4b7f-88a4-a16d362f181e"/>
-    <ds:schemaRef ds:uri="de27ce7e-ac99-4368-aacf-92c6609ff954"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6D26408-D2E0-437A-8F58-E9ACF19DC20B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Contenido xmlns="42b0f0ba-d73e-4b7f-88a4-a16d362f181e" xsi:nil="true"/>
+    <TaxCatchAll xmlns="de27ce7e-ac99-4368-aacf-92c6609ff954" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="42b0f0ba-d73e-4b7f-88a4-a16d362f181e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{279805BE-B426-4D47-82DF-816636ECCDA3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1804,4 +1792,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6D26408-D2E0-437A-8F58-E9ACF19DC20B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20F7D4BD-0E21-4A3F-930A-48565922CE88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="42b0f0ba-d73e-4b7f-88a4-a16d362f181e"/>
+    <ds:schemaRef ds:uri="de27ce7e-ac99-4368-aacf-92c6609ff954"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>